--- a/Result/3_1.xlsx
+++ b/Result/3_1.xlsx
@@ -1,46 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\hrcarryu\SAT-learn\Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c49e4f0b6c3fc49/WorkSpace/SAT_learn/Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FEB40B-AC52-4E48-AD0F-B1AF7574DEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_FFC65FC0E4492AE63C170B0C3335E30F4456E936" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D59729EE-55B2-4A75-9E1E-6F3C87F69A29}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>RTX100</t>
+  </si>
+  <si>
     <t>STC</t>
-  </si>
-  <si>
-    <t>RTX</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>STC_1_1000</t>
-  </si>
-  <si>
-    <t>MS_new</t>
-  </si>
-  <si>
-    <t>RTX100</t>
   </si>
   <si>
     <t>ismt_c_solved</t>
@@ -184,8 +175,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -253,7 +246,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -295,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,9 +320,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,6 +372,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -537,15 +566,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,967 +587,694 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2">
-        <v>98</v>
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
         <v>635</v>
       </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>41197</v>
+        <v>10478</v>
+      </c>
+      <c r="D3">
+        <v>2189</v>
       </c>
       <c r="E3">
-        <v>10478</v>
-      </c>
-      <c r="F3">
-        <v>386410</v>
-      </c>
-      <c r="G3">
-        <v>10478</v>
-      </c>
-      <c r="H3">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>377473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>16</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
         <v>34</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>7658</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>7472</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
         <v>7658</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>7472</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>323</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
         <v>494</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>4145187</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>2569</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
         <v>8342085</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>8</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
         <v>544</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>2028084</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>3091</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
         <v>12853653</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>3091</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>7</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
         <v>23</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>386993</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>411699</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
         <v>1053935</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>411699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>592</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>8</v>
       </c>
       <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
         <v>592</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>11667514</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>1358</v>
       </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
         <v>11667514</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>635</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>100</v>
       </c>
       <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
         <v>635</v>
       </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>405733</v>
+        <v>52134</v>
       </c>
       <c r="D15">
         <v>1056350</v>
       </c>
       <c r="E15">
-        <v>52134</v>
-      </c>
-      <c r="F15">
         <v>405733</v>
       </c>
-      <c r="G15">
-        <v>52134</v>
-      </c>
-      <c r="H15">
-        <v>1056350</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
         <v>625</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>1650078</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>509</v>
       </c>
       <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
         <v>1650078</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="E18">
         <v>634</v>
       </c>
-      <c r="F18">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19">
+        <v>21</v>
+      </c>
+      <c r="E19">
         <v>1188052</v>
       </c>
-      <c r="F19">
-        <v>1188052</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C20">
-        <v>635</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>100</v>
       </c>
       <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
         <v>635</v>
       </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C21">
-        <v>1110062</v>
+        <v>15932</v>
       </c>
       <c r="D21">
         <v>716454</v>
       </c>
       <c r="E21">
-        <v>15932</v>
-      </c>
-      <c r="F21">
         <v>1110062</v>
       </c>
-      <c r="G21">
-        <v>15932</v>
-      </c>
-      <c r="H21">
-        <v>716454</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
         <v>142</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C23">
-        <v>1382471</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>15741</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
         <v>1382471</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>15741</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C24">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>16</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
         <v>34</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C25">
-        <v>9838</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>9222</v>
       </c>
       <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
         <v>9838</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>9222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C26">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>100</v>
       </c>
       <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
         <v>100</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C27">
-        <v>3509</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>1836209</v>
       </c>
       <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
         <v>3509</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>1836209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>7</v>
       </c>
       <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
         <v>26</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C29">
-        <v>1071601</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>415013</v>
       </c>
       <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
         <v>1071601</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>415013</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="E30">
         <v>647</v>
       </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>647</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C31">
+        <v>51500</v>
+      </c>
+      <c r="E31">
         <v>1593591</v>
       </c>
-      <c r="E31">
-        <v>51500</v>
-      </c>
-      <c r="F31">
-        <v>1593591</v>
-      </c>
-      <c r="G31">
-        <v>51500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32">
+        <v>34</v>
+      </c>
+      <c r="E32">
         <v>650</v>
       </c>
-      <c r="F32">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33">
+        <v>35</v>
+      </c>
+      <c r="E33">
         <v>1359925</v>
       </c>
-      <c r="F33">
-        <v>1359925</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="E34">
         <v>645</v>
       </c>
-      <c r="F34">
-        <v>645</v>
-      </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
-      <c r="H34">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C35">
+        <v>6995</v>
+      </c>
+      <c r="D35">
+        <v>1834</v>
+      </c>
+      <c r="E35">
         <v>1829549</v>
       </c>
-      <c r="F35">
-        <v>1829549</v>
-      </c>
-      <c r="G35">
-        <v>6995</v>
-      </c>
-      <c r="H35">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C36">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>5</v>
       </c>
       <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
         <v>235</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C37">
-        <v>208959</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>4797</v>
       </c>
       <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
         <v>208959</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>4797</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
       </c>
       <c r="D38">
         <v>16</v>
       </c>
-      <c r="G38">
-        <v>3</v>
-      </c>
-      <c r="H38">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="C39">
+        <v>6668</v>
       </c>
       <c r="D39">
         <v>1945</v>
       </c>
-      <c r="G39">
-        <v>6668</v>
-      </c>
-      <c r="H39">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>345681</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40">
+        <v>42</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>2</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
+      <c r="E40">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>95825</v>
+      </c>
+      <c r="E41">
         <v>173</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>95825</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42">
+        <v>44</v>
+      </c>
+      <c r="C42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43">
-        <v>40024</v>
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <v>37657</v>
+      </c>
+      <c r="D43">
+        <v>1168201</v>
+      </c>
+      <c r="E43">
+        <v>349390</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>